--- a/Тесты/Тест_PVT.xlsx
+++ b/Тесты/Тест_PVT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Тесты\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Тесты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDCA74A-9C20-4293-8EFB-8BCBDA89FE78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4CC2A5-216A-4D0E-B84A-D776EC708EAE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="3825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест PVT" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="T_sep_C_">'Тест PVT'!$C$19</definedName>
     <definedName name="Tref_c_">'Тест PVT'!$C$24</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,6 +46,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -557,7 +558,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,11 +570,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -585,10 +585,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -663,28 +659,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -694,16 +678,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -39424,8 +39414,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="PVT_Bg_m3m3"/>
@@ -39753,419 +39743,419 @@
   </sheetPr>
   <dimension ref="B1:M428"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" style="4" customWidth="1"/>
-    <col min="3" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.84375" style="4" customWidth="1"/>
+    <col min="3" max="6" width="13.69140625" customWidth="1"/>
+    <col min="7" max="7" width="18.3046875" customWidth="1"/>
+    <col min="8" max="8" width="11.15234375" customWidth="1"/>
+    <col min="9" max="9" width="11.3828125" customWidth="1"/>
+    <col min="10" max="10" width="10.3828125" customWidth="1"/>
+    <col min="11" max="11" width="11.53515625" customWidth="1"/>
+    <col min="13" max="13" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="33">
+      <c r="K1" s="30">
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36" t="s">
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="37">
+      <c r="K2" s="34">
         <v>1.22</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:13" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="60"/>
-      <c r="L3" s="61" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="53"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="40">
         <v>0.86</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="G4" s="56" t="s">
+      <c r="D4" s="21"/>
+      <c r="G4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="40">
         <f>gamma_oil_*dens_wat_const</f>
         <v>860</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="13"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="45">
         <v>0.8</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="G5" s="57" t="s">
+      <c r="D5" s="13"/>
+      <c r="G5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="54">
+      <c r="H5" s="3">
         <f>gamma_gas_*dens_air_const</f>
         <v>0.97599999999999998</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="13"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="45">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="G6" s="57" t="s">
+      <c r="D6" s="13"/>
+      <c r="G6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="1">
         <f>gamma_water_*dens_wat_const</f>
         <v>1100</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="13"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="45">
         <v>100</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="48">
         <f>Rsb_m3m3_/gamma_oil_</f>
         <v>116.27906976744187</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="12">
+      <c r="J7" s="17"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="11">
         <f>[1]!UC_Rs_m3m3_to_scfbbl(Rsb_m3m3_)</f>
         <v>561.45835440000008</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="42">
         <v>200</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J9" s="20"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="16"/>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="J9" s="17"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="13"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="13"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="20"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="16"/>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J11" s="17"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52" t="s">
+    <row r="12" spans="2:13" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="47">
         <v>1</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="44">
         <v>0</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="25">
         <v>80</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="16">
         <f>T_res_C_</f>
         <v>80</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="16">
         <f>[1]!UC_Temperature_C_to_F(T_res_C_)</f>
         <v>176</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46" t="s">
+    <row r="14" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="16">
         <v>100</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="J14" s="19">
+      <c r="J14" s="16">
         <f>Pb_atm_*101325</f>
         <v>10132500</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="13"/>
     </row>
-    <row r="15" spans="2:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+    <row r="15" spans="2:13" ht="29.15" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="16">
         <v>1.2</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46" t="s">
+    <row r="16" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="16">
         <v>2</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="13"/>
     </row>
-    <row r="17" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46" t="s">
+    <row r="17" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="16">
         <v>1</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="16"/>
+      <c r="D17" s="13"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46" t="s">
+    <row r="18" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="16">
         <v>20</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>16</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="J18" s="19">
+      <c r="J18" s="16">
         <f>Psep_atm_*101325</f>
         <v>2026500</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="13"/>
     </row>
-    <row r="19" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+    <row r="19" spans="2:13" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="35">
         <v>34</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <f>T_sep_C_</f>
         <v>34</v>
       </c>
-      <c r="K19" s="39" t="s">
+      <c r="K19" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="23"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="20"/>
     </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="49" t="s">
+    <row r="22" spans="2:13" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22"/>
+      <c r="C22" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="57"/>
+      <c r="E22" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="57"/>
       <c r="K22" t="str">
         <f>[1]!PVT_Encode_string(gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_,Ksep_,Psep_atm_,T_sep_C_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.100;rsb_m3m3:100.000;Rp_m3m3:200.000;Pb_atma:100.000;Tres_C:80.000;Bob_m3m3:1.200;Muob_cP:2.000;PVTcorr:1;Ksep_fr:1.000;PKsep_atma:20.000;TKsep_C:34.000;</v>
+        <v>gamma_gas:0,800;gamma_oil:0,860;gamma_wat:1,100;rsb_m3m3:100,000;Rp_m3m3:200,000;Pb_atma:100,000;Tres_C:80,000;Bob_m3m3:1,200;Muob_cP:2,000;PVTcorr:1;Ksep_fr:1,000;PKsep_atma:20,000;TKsep_C:34,000;</v>
       </c>
     </row>
-    <row r="23" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
+    <row r="23" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="16">
         <v>50</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="2:13" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="2:13" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="35">
         <v>45</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="8">
         <f>[1]!PVT_Pb_atma(T_res_C_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,,T_res_C_,,,PVT_corr_)</f>
         <v>160.67459041321916</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <f>[1]!PVT_Pb_atma(T_res_C_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_,Ksep_,Psep_atm_,T_sep_C_)</f>
         <v>26.847541107121518</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="10">
         <f>[1]!PVT_Pb_atma(T_res_C_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,,T_res_C_,,,PVT_corr_1_)</f>
         <v>158.57644262663871</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <f>[1]!PVT_Pb_atma(T_res_C_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_1_,Ksep_,Psep_atm_,T_sep_C_)</f>
         <v>23.729927382677946</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="1">
@@ -40173,230 +40163,197 @@
         <v>26.847541107121518</v>
       </c>
     </row>
-    <row r="26" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="46" t="s">
+    <row r="26" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <f>[1]!PVT_Rs_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>68.493063640297152</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <f>[1]!PVT_Rs_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_,Ksep_,Psep_atm_,T_sep_C_)</f>
         <v>40.733017716318834</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="1">
         <f>[1]!PVT_Rs_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_1_)</f>
         <v>50.633932326723198</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="5">
         <f>[1]!PVT_Rs_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_1_,Ksep_,Psep_atm_,T_sep_C_)</f>
         <v>17.666397516224063</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f>[1]!PVT_Rs_m3m3(Pref_atm_,Tref_c_,,,,,,,,,,,,,,K22)</f>
         <v>40.733017716318834</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="46" t="s">
+    <row r="27" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <f>[1]!PVT_Bo_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>1.1218940899214978</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="16"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
-    <row r="28" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="46" t="s">
+    <row r="28" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <f>[1]!PVT_Bg_m3m3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>2.0112489969198805E-2</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="46" t="s">
+    <row r="29" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <f>[1]!PVT_Rhoo_kgm3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>826.22984558581788</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
-    <row r="30" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="46" t="s">
+    <row r="30" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <f>[1]!PVT_Rhog_kgm3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>48.594679301109622</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="16"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
-    <row r="31" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="46" t="s">
+    <row r="31" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>[1]!PVT_Rhow_kgm3(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>1087.6173492616192</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="16"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
-    <row r="32" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="46" t="s">
+    <row r="32" spans="2:13" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="14">
         <f>[1]!PVT_Muo_cP(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>2.7347606945884526</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="16"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="46" t="s">
+    <row r="33" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <f>[1]!PVT_Muw_cP(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>0.78598396296454154</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="16"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
-    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="46" t="s">
+    <row r="34" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="15">
         <f>[1]!PVT_Mug_cP(Pref_atm_,Tref_c_,gamma_gas_,gamma_oil_,gamma_water_,Rsb_m3m3_,Rp_m3m3_,Pb_atm_,T_res_C_,Bob_m3m3_,Muo_cP_,PVT_corr_)</f>
         <v>1.2308565998639807E-2</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="16"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="46" t="s">
+    <row r="35" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
-    <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="46" t="s">
+    <row r="36" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="46" t="s">
+    <row r="37" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="13"/>
+      <c r="J37" s="13"/>
     </row>
-    <row r="38" spans="2:11" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="s">
+    <row r="38" spans="2:11" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="5"/>
+    <row r="42" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B42"/>
       <c r="D42" t="str">
         <f>"T = "&amp;D43&amp; " C"</f>
         <v>T = 20 C</v>
@@ -40430,8 +40387,8 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="5"/>
+    <row r="43" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B43"/>
       <c r="D43">
         <v>20</v>
       </c>
@@ -40457,8 +40414,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="5"/>
+    <row r="44" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B44"/>
       <c r="C44" t="s">
         <v>52</v>
       </c>
@@ -40495,8 +40452,8 @@
         <v>T140</v>
       </c>
     </row>
-    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
+    <row r="45" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B45"/>
       <c r="C45">
         <v>0</v>
       </c>
@@ -40533,8 +40490,8 @@
         <v>7.0956935403531514</v>
       </c>
     </row>
-    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="5"/>
+    <row r="46" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B46"/>
       <c r="C46">
         <v>40</v>
       </c>
@@ -40571,8 +40528,8 @@
         <v>93.074018222162366</v>
       </c>
     </row>
-    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="5"/>
+    <row r="47" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B47"/>
       <c r="C47">
         <v>70</v>
       </c>
@@ -40609,8 +40566,8 @@
         <v>148.09829007267061</v>
       </c>
     </row>
-    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
+    <row r="48" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B48"/>
       <c r="C48">
         <v>100</v>
       </c>
@@ -40647,8 +40604,8 @@
         <v>199.12173650423259</v>
       </c>
     </row>
-    <row r="49" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
+    <row r="49" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B49"/>
       <c r="C49">
         <v>130</v>
       </c>
@@ -40685,8 +40642,8 @@
         <v>247.56637266045047</v>
       </c>
     </row>
-    <row r="50" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
+    <row r="50" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B50"/>
       <c r="C50">
         <v>160</v>
       </c>
@@ -40723,8 +40680,8 @@
         <v>294.12927782653207</v>
       </c>
     </row>
-    <row r="51" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
+    <row r="51" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B51"/>
       <c r="C51">
         <v>190</v>
       </c>
@@ -40761,8 +40718,8 @@
         <v>339.22211673730004</v>
       </c>
     </row>
-    <row r="52" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
+    <row r="52" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B52"/>
       <c r="C52">
         <v>220</v>
       </c>
@@ -40799,8 +40756,8 @@
         <v>383.1152999059247</v>
       </c>
     </row>
-    <row r="53" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="5"/>
+    <row r="53" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B53"/>
       <c r="C53">
         <v>250</v>
       </c>
@@ -40837,8 +40794,8 @@
         <v>425.99929288343424</v>
       </c>
     </row>
-    <row r="54" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="5"/>
+    <row r="54" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B54"/>
       <c r="C54">
         <v>280</v>
       </c>
@@ -40875,8 +40832,8 @@
         <v>468.01506949494268</v>
       </c>
     </row>
-    <row r="55" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="5"/>
+    <row r="55" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B55"/>
       <c r="C55">
         <v>310</v>
       </c>
@@ -40913,35 +40870,35 @@
         <v>509.27091855836846</v>
       </c>
     </row>
-    <row r="56" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="5"/>
+    <row r="56" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B56"/>
     </row>
-    <row r="57" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
+    <row r="57" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B57"/>
     </row>
-    <row r="58" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
+    <row r="58" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B58"/>
     </row>
-    <row r="59" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="5"/>
+    <row r="59" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B59"/>
     </row>
-    <row r="60" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="5"/>
+    <row r="60" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B60"/>
     </row>
-    <row r="61" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="5"/>
+    <row r="61" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B61"/>
     </row>
-    <row r="62" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="5"/>
+    <row r="62" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B62"/>
     </row>
-    <row r="63" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="5" t="s">
+    <row r="63" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D66" t="str">
         <f>"T = "&amp;D67&amp; " C"</f>
         <v>T = 20 C</v>
@@ -40975,7 +40932,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="67" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D67">
         <v>20</v>
       </c>
@@ -41005,7 +40962,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C68" t="s">
         <v>53</v>
       </c>
@@ -41042,7 +40999,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="69" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C69">
         <v>1</v>
       </c>
@@ -41079,7 +41036,7 @@
         <v>0.2953816632461545</v>
       </c>
     </row>
-    <row r="70" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C70">
         <v>5</v>
       </c>
@@ -41116,7 +41073,7 @@
         <v>2.050894955289579</v>
       </c>
     </row>
-    <row r="71" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C71">
         <v>10</v>
       </c>
@@ -41153,7 +41110,7 @@
         <v>4.7248011095094089</v>
       </c>
     </row>
-    <row r="72" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C72">
         <v>15</v>
       </c>
@@ -41190,7 +41147,7 @@
         <v>7.6983456643950507</v>
       </c>
     </row>
-    <row r="73" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C73">
         <v>20</v>
       </c>
@@ -41227,7 +41184,7 @@
         <v>10.884880021204843</v>
       </c>
     </row>
-    <row r="74" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C74">
         <v>25</v>
       </c>
@@ -41264,7 +41221,7 @@
         <v>14.239780734551076</v>
       </c>
     </row>
-    <row r="75" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C75">
         <v>30</v>
       </c>
@@ -41301,7 +41258,7 @@
         <v>17.735258474700828</v>
       </c>
     </row>
-    <row r="76" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C76">
         <v>35</v>
       </c>
@@ -41338,7 +41295,7 @@
         <v>21.352142392701772</v>
       </c>
     </row>
-    <row r="77" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C77">
         <v>40</v>
       </c>
@@ -41375,7 +41332,7 @@
         <v>25.076317569762548</v>
       </c>
     </row>
-    <row r="78" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C78">
         <v>45</v>
       </c>
@@ -41412,7 +41369,7 @@
         <v>28.896909525111269</v>
       </c>
     </row>
-    <row r="79" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C79">
         <v>50</v>
       </c>
@@ -41449,7 +41406,7 @@
         <v>32.805254915787678</v>
       </c>
     </row>
-    <row r="80" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C80">
         <v>55</v>
       </c>
@@ -41486,7 +41443,7 @@
         <v>36.794271595387663</v>
       </c>
     </row>
-    <row r="81" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C81">
         <v>60</v>
       </c>
@@ -41523,7 +41480,7 @@
         <v>40.858050141759207</v>
       </c>
     </row>
-    <row r="82" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C82">
         <v>65</v>
       </c>
@@ -41560,7 +41517,7 @@
         <v>44.991576700858211</v>
       </c>
     </row>
-    <row r="83" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C83">
         <v>70</v>
       </c>
@@ -41597,7 +41554,7 @@
         <v>49.190537919674028</v>
       </c>
     </row>
-    <row r="84" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C84">
         <v>75</v>
       </c>
@@ -41634,7 +41591,7 @@
         <v>53.451179445847885</v>
       </c>
     </row>
-    <row r="85" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C85">
         <v>80</v>
       </c>
@@ -41671,7 +41628,7 @@
         <v>57.770200648475111</v>
       </c>
     </row>
-    <row r="86" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C86">
         <v>85</v>
       </c>
@@ -41708,7 +41665,7 @@
         <v>62.144674577706553</v>
       </c>
     </row>
-    <row r="87" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C87">
         <v>90</v>
       </c>
@@ -41745,7 +41702,7 @@
         <v>66.571985968126228</v>
       </c>
     </row>
-    <row r="88" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C88">
         <v>95</v>
       </c>
@@ -41782,7 +41739,7 @@
         <v>71.049782431971636</v>
       </c>
     </row>
-    <row r="89" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C89">
         <v>100</v>
       </c>
@@ -41819,7 +41776,7 @@
         <v>75.575935483232698</v>
       </c>
     </row>
-    <row r="90" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C90">
         <v>105</v>
       </c>
@@ -41856,7 +41813,7 @@
         <v>80.148509015759018</v>
       </c>
     </row>
-    <row r="91" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C91">
         <v>110</v>
       </c>
@@ -41893,7 +41850,7 @@
         <v>84.765733519946082</v>
       </c>
     </row>
-    <row r="92" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C92">
         <v>115</v>
       </c>
@@ -41930,7 +41887,7 @@
         <v>89.425984777996135</v>
       </c>
     </row>
-    <row r="93" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C93">
         <v>120</v>
       </c>
@@ -41967,7 +41924,7 @@
         <v>94.127766097565683</v>
       </c>
     </row>
-    <row r="94" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C94">
         <v>125</v>
       </c>
@@ -42004,7 +41961,7 @@
         <v>98.86969337220944</v>
       </c>
     </row>
-    <row r="95" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C95">
         <v>130</v>
       </c>
@@ -42041,7 +41998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C96">
         <v>135</v>
       </c>
@@ -42078,7 +42035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C97">
         <v>140</v>
       </c>
@@ -42115,7 +42072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C98">
         <v>145</v>
       </c>
@@ -42152,7 +42109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C99">
         <v>150</v>
       </c>
@@ -42189,12 +42146,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:11" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="5" t="s">
+    <row r="100" spans="2:11" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B100" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D101" t="str">
         <f>"T = "&amp;D102&amp; " C"</f>
         <v>T = 20 C</v>
@@ -42228,7 +42185,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="102" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D102">
         <v>20</v>
       </c>
@@ -42242,7 +42199,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C103" t="s">
         <v>53</v>
       </c>
@@ -42279,7 +42236,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="104" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C104">
         <v>1</v>
       </c>
@@ -42316,7 +42273,7 @@
         <v>1.0718497071115507</v>
       </c>
     </row>
-    <row r="105" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C105">
         <v>5</v>
       </c>
@@ -42353,7 +42310,7 @@
         <v>1.0746458344897969</v>
       </c>
     </row>
-    <row r="106" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C106">
         <v>10</v>
       </c>
@@ -42390,7 +42347,7 @@
         <v>1.0789291848779996</v>
       </c>
     </row>
-    <row r="107" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C107">
         <v>15</v>
       </c>
@@ -42427,7 +42384,7 @@
         <v>1.0837261689668654</v>
       </c>
     </row>
-    <row r="108" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C108">
         <v>20</v>
       </c>
@@ -42464,7 +42421,7 @@
         <v>1.0889047660294424</v>
       </c>
     </row>
-    <row r="109" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C109">
         <v>25</v>
       </c>
@@ -42501,7 +42458,7 @@
         <v>1.0943980217727596</v>
       </c>
     </row>
-    <row r="110" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C110">
         <v>30</v>
       </c>
@@ -42538,7 +42495,7 @@
         <v>1.1001646764609927</v>
       </c>
     </row>
-    <row r="111" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C111">
         <v>35</v>
       </c>
@@ -42575,7 +42532,7 @@
         <v>1.1061764399603518</v>
       </c>
     </row>
-    <row r="112" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C112">
         <v>40</v>
       </c>
@@ -42612,7 +42569,7 @@
         <v>1.1124125275685555</v>
       </c>
     </row>
-    <row r="113" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C113">
         <v>45</v>
       </c>
@@ -42649,8 +42606,8 @@
         <v>1.1188569044351926</v>
       </c>
     </row>
-    <row r="114" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
+    <row r="114" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B114"/>
       <c r="C114">
         <v>50</v>
       </c>
@@ -42687,7 +42644,7 @@
         <v>1.1254967402333593</v>
       </c>
     </row>
-    <row r="115" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C115">
         <v>55</v>
       </c>
@@ -42724,7 +42681,7 @@
         <v>1.1323214738482159</v>
       </c>
     </row>
-    <row r="116" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C116">
         <v>60</v>
       </c>
@@ -42761,7 +42718,7 @@
         <v>1.1393222135521217</v>
       </c>
     </row>
-    <row r="117" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C117">
         <v>65</v>
       </c>
@@ -42798,8 +42755,8 @@
         <v>1.1464913343608027</v>
       </c>
     </row>
-    <row r="118" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="5"/>
+    <row r="118" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B118"/>
       <c r="C118">
         <v>70</v>
       </c>
@@ -42836,7 +42793,7 @@
         <v>1.1538221975343586</v>
       </c>
     </row>
-    <row r="119" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C119">
         <v>75</v>
       </c>
@@ -42873,7 +42830,7 @@
         <v>1.1613089490454209</v>
       </c>
     </row>
-    <row r="120" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C120">
         <v>80</v>
       </c>
@@ -42910,7 +42867,7 @@
         <v>1.1689463709473167</v>
       </c>
     </row>
-    <row r="121" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C121">
         <v>85</v>
       </c>
@@ -42947,8 +42904,8 @@
         <v>1.1767297692630079</v>
       </c>
     </row>
-    <row r="122" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="5"/>
+    <row r="122" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B122"/>
       <c r="C122">
         <v>90</v>
       </c>
@@ -42985,7 +42942,7 @@
         <v>1.1846548877482126</v>
       </c>
     </row>
-    <row r="123" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C123">
         <v>95</v>
       </c>
@@ -43022,7 +42979,7 @@
         <v>1.192717840403724</v>
       </c>
     </row>
-    <row r="124" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C124">
         <v>100</v>
       </c>
@@ -43059,7 +43016,7 @@
         <v>1.2009150578462193</v>
       </c>
     </row>
-    <row r="125" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C125">
         <v>105</v>
       </c>
@@ -43096,8 +43053,8 @@
         <v>1.2092432441047449</v>
       </c>
     </row>
-    <row r="126" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="5"/>
+    <row r="126" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B126"/>
       <c r="C126">
         <v>110</v>
       </c>
@@ -43134,7 +43091,7 @@
         <v>1.2176993413851618</v>
       </c>
     </row>
-    <row r="127" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C127">
         <v>115</v>
       </c>
@@ -43171,7 +43128,7 @@
         <v>1.2262805010114934</v>
       </c>
     </row>
-    <row r="128" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C128">
         <v>120</v>
       </c>
@@ -43208,7 +43165,7 @@
         <v>1.23498405921791</v>
       </c>
     </row>
-    <row r="129" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C129">
         <v>125</v>
       </c>
@@ -43245,8 +43202,8 @@
         <v>1.2438075167949454</v>
       </c>
     </row>
-    <row r="130" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="5"/>
+    <row r="130" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B130"/>
       <c r="C130">
         <v>130</v>
       </c>
@@ -43283,7 +43240,7 @@
         <v>1.2435121916743945</v>
       </c>
     </row>
-    <row r="131" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C131">
         <v>135</v>
       </c>
@@ -43320,7 +43277,7 @@
         <v>1.2409931852723795</v>
       </c>
     </row>
-    <row r="132" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C132">
         <v>140</v>
       </c>
@@ -43357,7 +43314,7 @@
         <v>1.2386586772078025</v>
       </c>
     </row>
-    <row r="133" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C133">
         <v>145</v>
       </c>
@@ -43394,7 +43351,7 @@
         <v>1.2364891175976469</v>
       </c>
     </row>
-    <row r="134" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C134">
         <v>150</v>
       </c>
@@ -43431,12 +43388,12 @@
         <v>1.2344676239353793</v>
       </c>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B135" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="136" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D136" t="str">
         <f>"T = "&amp;D137&amp; " C"</f>
         <v>T = 20 C</v>
@@ -43470,7 +43427,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="137" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D137">
         <v>20</v>
       </c>
@@ -43484,7 +43441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C138" t="s">
         <v>53</v>
       </c>
@@ -43521,7 +43478,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="139" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C139">
         <v>1</v>
       </c>
@@ -43558,7 +43515,7 @@
         <v>1.4137017642584089</v>
       </c>
     </row>
-    <row r="140" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C140">
         <v>5</v>
       </c>
@@ -43595,7 +43552,7 @@
         <v>0.28164426120056635</v>
       </c>
     </row>
-    <row r="141" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C141">
         <v>10</v>
       </c>
@@ -43632,7 +43589,7 @@
         <v>0.14023698234972745</v>
       </c>
     </row>
-    <row r="142" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C142">
         <v>15</v>
       </c>
@@ -43669,7 +43626,7 @@
         <v>9.3161809915863966E-2</v>
       </c>
     </row>
-    <row r="143" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C143">
         <v>20</v>
       </c>
@@ -43706,7 +43663,7 @@
         <v>6.9665162209423925E-2</v>
       </c>
     </row>
-    <row r="144" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C144">
         <v>25</v>
       </c>
@@ -43743,7 +43700,7 @@
         <v>5.5597556277486596E-2</v>
       </c>
     </row>
-    <row r="145" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C145">
         <v>30</v>
       </c>
@@ -43780,7 +43737,7 @@
         <v>4.6242928495156668E-2</v>
       </c>
     </row>
-    <row r="146" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C146">
         <v>35</v>
       </c>
@@ -43817,7 +43774,7 @@
         <v>3.9580317607774418E-2</v>
       </c>
     </row>
-    <row r="147" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C147">
         <v>40</v>
       </c>
@@ -43854,7 +43811,7 @@
         <v>3.4599365592174872E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C148">
         <v>45</v>
       </c>
@@ -43891,8 +43848,8 @@
         <v>3.0738843822709274E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="5"/>
+    <row r="149" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B149"/>
       <c r="C149">
         <v>50</v>
       </c>
@@ -43929,7 +43886,7 @@
         <v>2.7662073806610499E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C150">
         <v>55</v>
       </c>
@@ -43966,7 +43923,7 @@
         <v>2.5154850395588596E-2</v>
       </c>
     </row>
-    <row r="151" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C151">
         <v>60</v>
       </c>
@@ -44003,7 +43960,7 @@
         <v>2.3074405780602984E-2</v>
       </c>
     </row>
-    <row r="152" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C152">
         <v>65</v>
       </c>
@@ -44040,8 +43997,8 @@
         <v>2.132192988955197E-2</v>
       </c>
     </row>
-    <row r="153" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="5"/>
+    <row r="153" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B153"/>
       <c r="C153">
         <v>70</v>
       </c>
@@ -44078,7 +44035,7 @@
         <v>1.9826868544524034E-2</v>
       </c>
     </row>
-    <row r="154" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C154">
         <v>75</v>
       </c>
@@ -44115,7 +44072,7 @@
         <v>1.8537502853471118E-2</v>
       </c>
     </row>
-    <row r="155" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C155">
         <v>80</v>
       </c>
@@ -44152,7 +44109,7 @@
         <v>1.741506166117791E-2</v>
       </c>
     </row>
-    <row r="156" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C156">
         <v>85</v>
       </c>
@@ -44189,8 +44146,8 @@
         <v>1.6429912189640752E-2</v>
       </c>
     </row>
-    <row r="157" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="5"/>
+    <row r="157" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B157"/>
       <c r="C157">
         <v>90</v>
       </c>
@@ -44227,7 +44184,7 @@
         <v>1.5559020632661699E-2</v>
       </c>
     </row>
-    <row r="158" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C158">
         <v>95</v>
       </c>
@@ -44264,7 +44221,7 @@
         <v>1.4784214794084259E-2</v>
       </c>
     </row>
-    <row r="159" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C159">
         <v>100</v>
       </c>
@@ -44301,7 +44258,7 @@
         <v>1.4090968032452765E-2</v>
       </c>
     </row>
-    <row r="160" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C160">
         <v>105</v>
       </c>
@@ -44338,8 +44295,8 @@
         <v>1.3467530728112419E-2</v>
       </c>
     </row>
-    <row r="161" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="5"/>
+    <row r="161" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B161"/>
       <c r="C161">
         <v>110</v>
       </c>
@@ -44376,7 +44333,7 @@
         <v>1.2904298686647735E-2</v>
       </c>
     </row>
-    <row r="162" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C162">
         <v>115</v>
       </c>
@@ -44413,7 +44370,7 @@
         <v>1.2393346359757983E-2</v>
       </c>
     </row>
-    <row r="163" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C163">
         <v>120</v>
       </c>
@@ -44450,7 +44407,7 @@
         <v>1.1928076805993887E-2</v>
       </c>
     </row>
-    <row r="164" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C164">
         <v>125</v>
       </c>
@@ -44487,8 +44444,8 @@
         <v>1.1502955699793704E-2</v>
       </c>
     </row>
-    <row r="165" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="5"/>
+    <row r="165" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B165"/>
       <c r="C165">
         <v>130</v>
       </c>
@@ -44525,7 +44482,7 @@
         <v>1.1113306757056379E-2</v>
       </c>
     </row>
-    <row r="166" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C166">
         <v>135</v>
       </c>
@@ -44562,7 +44519,7 @@
         <v>1.0755152651829759E-2</v>
       </c>
     </row>
-    <row r="167" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C167">
         <v>140</v>
       </c>
@@ -44599,7 +44556,7 @@
         <v>1.0425090049290847E-2</v>
       </c>
     </row>
-    <row r="168" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C168">
         <v>145</v>
       </c>
@@ -44636,7 +44593,7 @@
         <v>1.0120190518446918E-2</v>
       </c>
     </row>
-    <row r="169" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C169">
         <v>150</v>
       </c>
@@ -44673,13 +44630,13 @@
         <v>9.8379212846974925E-3</v>
       </c>
     </row>
-    <row r="170" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="2:11" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="5" t="s">
+    <row r="170" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="171" spans="2:11" collapsed="1" x14ac:dyDescent="0.4">
+      <c r="B171" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="172" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D172" t="str">
         <f>"T = "&amp;D173&amp; " C"</f>
         <v>T = 20 C</v>
@@ -44713,7 +44670,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="173" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D173">
         <v>20</v>
       </c>
@@ -44727,7 +44684,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="174" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C174" t="s">
         <v>53</v>
       </c>
@@ -44764,7 +44721,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="175" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C175">
         <v>1</v>
       </c>
@@ -44801,7 +44758,7 @@
         <v>5.483086121755786</v>
       </c>
     </row>
-    <row r="176" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C176">
         <v>5</v>
       </c>
@@ -44838,7 +44795,7 @@
         <v>5.2159992706051588</v>
       </c>
     </row>
-    <row r="177" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C177">
         <v>10</v>
       </c>
@@ -44875,7 +44832,7 @@
         <v>4.8722156697534906</v>
       </c>
     </row>
-    <row r="178" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C178">
         <v>15</v>
       </c>
@@ -44912,7 +44869,7 @@
         <v>4.5568285512608711</v>
       </c>
     </row>
-    <row r="179" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C179">
         <v>20</v>
       </c>
@@ -44949,7 +44906,7 @@
         <v>4.2762085101389715</v>
       </c>
     </row>
-    <row r="180" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C180">
         <v>25</v>
       </c>
@@ -44986,7 +44943,7 @@
         <v>4.0283998119471613</v>
       </c>
     </row>
-    <row r="181" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C181">
         <v>30</v>
       </c>
@@ -45023,7 +44980,7 @@
         <v>3.809483713343282</v>
       </c>
     </row>
-    <row r="182" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C182">
         <v>35</v>
       </c>
@@ -45060,7 +45017,7 @@
         <v>3.6154060668497512</v>
       </c>
     </row>
-    <row r="183" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C183">
         <v>40</v>
       </c>
@@ -45097,7 +45054,7 @@
         <v>3.4425216268052705</v>
       </c>
     </row>
-    <row r="184" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C184">
         <v>45</v>
       </c>
@@ -45134,8 +45091,8 @@
         <v>3.2877132997982255</v>
       </c>
     </row>
-    <row r="185" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="5"/>
+    <row r="185" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B185"/>
       <c r="C185">
         <v>50</v>
       </c>
@@ -45172,7 +45129,7 @@
         <v>3.1483681514454975</v>
       </c>
     </row>
-    <row r="186" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C186">
         <v>55</v>
       </c>
@@ -45209,7 +45166,7 @@
         <v>3.0223110414555379</v>
       </c>
     </row>
-    <row r="187" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C187">
         <v>60</v>
       </c>
@@ -45246,7 +45203,7 @@
         <v>2.9077325758465631</v>
       </c>
     </row>
-    <row r="188" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C188">
         <v>65</v>
       </c>
@@ -45283,8 +45240,8 @@
         <v>2.8031238997668186</v>
       </c>
     </row>
-    <row r="189" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="5"/>
+    <row r="189" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B189"/>
       <c r="C189">
         <v>70</v>
       </c>
@@ -45321,7 +45278,7 @@
         <v>2.7072215989514508</v>
       </c>
     </row>
-    <row r="190" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C190">
         <v>75</v>
       </c>
@@ -45358,7 +45315,7 @@
         <v>2.6189625429855381</v>
       </c>
     </row>
-    <row r="191" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C191">
         <v>80</v>
       </c>
@@ -45395,7 +45352,7 @@
         <v>2.5374473825669579</v>
       </c>
     </row>
-    <row r="192" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C192">
         <v>85</v>
       </c>
@@ -45432,8 +45389,8 @@
         <v>2.4619111988961717</v>
       </c>
     </row>
-    <row r="193" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="5"/>
+    <row r="193" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B193"/>
       <c r="C193">
         <v>90</v>
       </c>
@@ -45470,7 +45427,7 @@
         <v>2.3916999208904839</v>
       </c>
     </row>
-    <row r="194" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C194">
         <v>95</v>
       </c>
@@ -45507,7 +45464,7 @@
         <v>2.3262513408563263</v>
       </c>
     </row>
-    <row r="195" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C195">
         <v>100</v>
       </c>
@@ -45544,7 +45501,7 @@
         <v>2.2650797798039308</v>
       </c>
     </row>
-    <row r="196" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C196">
         <v>105</v>
       </c>
@@ -45581,8 +45538,8 @@
         <v>2.2077636477050349</v>
       </c>
     </row>
-    <row r="197" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="5"/>
+    <row r="197" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B197"/>
       <c r="C197">
         <v>110</v>
       </c>
@@ -45619,7 +45576,7 @@
         <v>2.1539353040989995</v>
       </c>
     </row>
-    <row r="198" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C198">
         <v>115</v>
       </c>
@@ -45656,7 +45613,7 @@
         <v>2.1032727523610379</v>
       </c>
     </row>
-    <row r="199" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C199">
         <v>120</v>
       </c>
@@ -45693,7 +45650,7 @@
         <v>2.0554928014809284</v>
       </c>
     </row>
-    <row r="200" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C200">
         <v>125</v>
       </c>
@@ -45730,8 +45687,8 @@
         <v>2.0103454075938298</v>
       </c>
     </row>
-    <row r="201" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="5"/>
+    <row r="201" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B201"/>
       <c r="C201">
         <v>130</v>
       </c>
@@ -45768,7 +45725,7 @@
         <v>2.0187361756690048</v>
       </c>
     </row>
-    <row r="202" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C202">
         <v>135</v>
       </c>
@@ -45805,7 +45762,7 @@
         <v>2.040710018291259</v>
       </c>
     </row>
-    <row r="203" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C203">
         <v>140</v>
       </c>
@@ -45842,7 +45799,7 @@
         <v>2.0635394555013478</v>
       </c>
     </row>
-    <row r="204" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C204">
         <v>145</v>
       </c>
@@ -45879,7 +45836,7 @@
         <v>2.0871954590683433</v>
       </c>
     </row>
-    <row r="205" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C205">
         <v>150</v>
       </c>
@@ -45916,13 +45873,13 @@
         <v>2.1116507197545773</v>
       </c>
     </row>
-    <row r="206" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B209" s="5" t="s">
+    <row r="206" spans="2:11" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B209" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="210" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D210" t="str">
         <f>"T = "&amp;D211&amp; " C"</f>
         <v>T = 20 C</v>
@@ -45956,7 +45913,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="211" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D211">
         <v>20</v>
       </c>
@@ -45970,7 +45927,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="212" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C212" t="s">
         <v>53</v>
       </c>
@@ -46007,7 +45964,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="213" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C213">
         <v>1</v>
       </c>
@@ -46044,7 +46001,7 @@
         <v>1.4133268423431026E-2</v>
       </c>
     </row>
-    <row r="214" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C214">
         <v>5</v>
       </c>
@@ -46081,7 +46038,7 @@
         <v>1.4165808297635347E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C215">
         <v>10</v>
       </c>
@@ -46118,7 +46075,7 @@
         <v>1.4222456383473929E-2</v>
       </c>
     </row>
-    <row r="216" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C216">
         <v>15</v>
       </c>
@@ -46155,7 +46112,7 @@
         <v>1.4290606707621126E-2</v>
       </c>
     </row>
-    <row r="217" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C217">
         <v>20</v>
       </c>
@@ -46192,7 +46149,7 @@
         <v>1.4367728792597562E-2</v>
       </c>
     </row>
-    <row r="218" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C218">
         <v>25</v>
       </c>
@@ -46229,7 +46186,7 @@
         <v>1.4452428800775378E-2</v>
       </c>
     </row>
-    <row r="219" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C219">
         <v>30</v>
       </c>
@@ -46266,7 +46223,7 @@
         <v>1.4543778075441957E-2</v>
       </c>
     </row>
-    <row r="220" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C220">
         <v>35</v>
       </c>
@@ -46303,7 +46260,7 @@
         <v>1.464108763778396E-2</v>
       </c>
     </row>
-    <row r="221" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C221">
         <v>40</v>
       </c>
@@ -46340,7 +46297,7 @@
         <v>1.4743808929865938E-2</v>
       </c>
     </row>
-    <row r="222" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C222">
         <v>45</v>
       </c>
@@ -46377,8 +46334,8 @@
         <v>1.4851482893085672E-2</v>
       </c>
     </row>
-    <row r="223" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="5"/>
+    <row r="223" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B223"/>
       <c r="C223">
         <v>50</v>
       </c>
@@ -46415,7 +46372,7 @@
         <v>1.4963711073919217E-2</v>
       </c>
     </row>
-    <row r="224" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C224">
         <v>55</v>
       </c>
@@ -46452,7 +46409,7 @@
         <v>1.508013800590953E-2</v>
       </c>
     </row>
-    <row r="225" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C225">
         <v>60</v>
       </c>
@@ -46489,7 +46446,7 @@
         <v>1.5200439869257072E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C226">
         <v>65</v>
       </c>
@@ -46526,8 +46483,8 @@
         <v>1.5324316874336103E-2</v>
       </c>
     </row>
-    <row r="227" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="5"/>
+    <row r="227" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B227"/>
       <c r="C227">
         <v>70</v>
       </c>
@@ -46564,7 +46521,7 @@
         <v>1.5451487966875685E-2</v>
       </c>
     </row>
-    <row r="228" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C228">
         <v>75</v>
       </c>
@@ -46601,7 +46558,7 @@
         <v>1.5581687039475435E-2</v>
       </c>
     </row>
-    <row r="229" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C229">
         <v>80</v>
       </c>
@@ -46638,7 +46595,7 @@
         <v>1.571466015285004E-2</v>
       </c>
     </row>
-    <row r="230" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C230">
         <v>85</v>
       </c>
@@ -46675,8 +46632,8 @@
         <v>1.5850163452477688E-2</v>
       </c>
     </row>
-    <row r="231" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="5"/>
+    <row r="231" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B231"/>
       <c r="C231">
         <v>90</v>
       </c>
@@ -46713,7 +46670,7 @@
         <v>1.5987961575184253E-2</v>
       </c>
     </row>
-    <row r="232" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C232">
         <v>95</v>
       </c>
@@ -46750,7 +46707,7 @@
         <v>1.6127826407632748E-2</v>
       </c>
     </row>
-    <row r="233" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C233">
         <v>100</v>
       </c>
@@ -46787,7 +46744,7 @@
         <v>1.6269536101802994E-2</v>
       </c>
     </row>
-    <row r="234" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C234">
         <v>105</v>
       </c>
@@ -46824,8 +46781,8 @@
         <v>1.6412874280876653E-2</v>
       </c>
     </row>
-    <row r="235" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="5"/>
+    <row r="235" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B235"/>
       <c r="C235">
         <v>110</v>
       </c>
@@ -46862,7 +46819,7 @@
         <v>1.6557629388009341E-2</v>
       </c>
     </row>
-    <row r="236" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C236">
         <v>115</v>
       </c>
@@ -46899,7 +46856,7 @@
         <v>1.6703594143578495E-2</v>
       </c>
     </row>
-    <row r="237" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C237">
         <v>120</v>
       </c>
@@ -46936,7 +46893,7 @@
         <v>1.6850565085677553E-2</v>
       </c>
     </row>
-    <row r="238" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C238">
         <v>125</v>
       </c>
@@ -46973,8 +46930,8 @@
         <v>1.6998342175169035E-2</v>
       </c>
     </row>
-    <row r="239" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="5"/>
+    <row r="239" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B239"/>
       <c r="C239">
         <v>130</v>
       </c>
@@ -47011,7 +46968,7 @@
         <v>1.7146728451342443E-2</v>
       </c>
     </row>
-    <row r="240" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C240">
         <v>135</v>
       </c>
@@ -47048,7 +47005,7 @@
         <v>1.7295529727696313E-2</v>
       </c>
     </row>
-    <row r="241" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C241">
         <v>140</v>
       </c>
@@ -47085,7 +47042,7 @@
         <v>1.7444554319945536E-2</v>
       </c>
     </row>
-    <row r="242" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C242">
         <v>145</v>
       </c>
@@ -47122,7 +47079,7 @@
         <v>1.7593612800298336E-2</v>
       </c>
     </row>
-    <row r="243" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C243">
         <v>150</v>
       </c>
@@ -47159,12 +47116,12 @@
         <v>1.7742517773526652E-2</v>
       </c>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B246" s="5" t="s">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B246" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="247" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D247" t="str">
         <f>"T = "&amp;D248&amp; " C"</f>
         <v>T = 20 C</v>
@@ -47198,7 +47155,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="248" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D248">
         <v>20</v>
       </c>
@@ -47212,7 +47169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="249" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C249" t="s">
         <v>53</v>
       </c>
@@ -47249,7 +47206,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="250" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C250">
         <v>1</v>
       </c>
@@ -47286,7 +47243,7 @@
         <v>0.30999391934379422</v>
       </c>
     </row>
-    <row r="251" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C251">
         <v>5</v>
       </c>
@@ -47323,7 +47280,7 @@
         <v>0.31073320768768209</v>
       </c>
     </row>
-    <row r="252" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C252">
         <v>10</v>
       </c>
@@ -47360,7 +47317,7 @@
         <v>0.31166667663414027</v>
       </c>
     </row>
-    <row r="253" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C253">
         <v>15</v>
       </c>
@@ -47397,7 +47354,7 @@
         <v>0.31261054393237436</v>
       </c>
     </row>
-    <row r="254" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C254">
         <v>20</v>
       </c>
@@ -47434,7 +47391,7 @@
         <v>0.31356480958238447</v>
       </c>
     </row>
-    <row r="255" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C255">
         <v>25</v>
       </c>
@@ -47471,7 +47428,7 @@
         <v>0.31452947358417049</v>
       </c>
     </row>
-    <row r="256" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C256">
         <v>30</v>
       </c>
@@ -47508,7 +47465,7 @@
         <v>0.31550453593773242</v>
       </c>
     </row>
-    <row r="257" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C257">
         <v>35</v>
       </c>
@@ -47545,7 +47502,7 @@
         <v>0.31648999664307037</v>
       </c>
     </row>
-    <row r="258" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C258">
         <v>40</v>
       </c>
@@ -47582,7 +47539,7 @@
         <v>0.31748585570018417</v>
       </c>
     </row>
-    <row r="259" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C259">
         <v>45</v>
       </c>
@@ -47619,8 +47576,8 @@
         <v>0.31849211310907399</v>
       </c>
     </row>
-    <row r="260" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="5"/>
+    <row r="260" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B260"/>
       <c r="C260">
         <v>50</v>
       </c>
@@ -47657,7 +47614,7 @@
         <v>0.31950876886973972</v>
       </c>
     </row>
-    <row r="261" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C261">
         <v>55</v>
       </c>
@@ -47694,7 +47651,7 @@
         <v>0.32053582298218142</v>
       </c>
     </row>
-    <row r="262" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C262">
         <v>60</v>
       </c>
@@ -47731,7 +47688,7 @@
         <v>0.32157327544639908</v>
       </c>
     </row>
-    <row r="263" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C263">
         <v>65</v>
       </c>
@@ -47768,8 +47725,8 @@
         <v>0.32262112626239264</v>
       </c>
     </row>
-    <row r="264" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="5"/>
+    <row r="264" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B264"/>
       <c r="C264">
         <v>70</v>
       </c>
@@ -47806,7 +47763,7 @@
         <v>0.32367937543016218</v>
       </c>
     </row>
-    <row r="265" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C265">
         <v>75</v>
       </c>
@@ -47843,7 +47800,7 @@
         <v>0.32474802294970762</v>
       </c>
     </row>
-    <row r="266" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C266">
         <v>80</v>
       </c>
@@ -47880,7 +47837,7 @@
         <v>0.32582706882102902</v>
       </c>
     </row>
-    <row r="267" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C267">
         <v>85</v>
       </c>
@@ -47917,8 +47874,8 @@
         <v>0.32691651304412639</v>
       </c>
     </row>
-    <row r="268" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="5"/>
+    <row r="268" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B268"/>
       <c r="C268">
         <v>90</v>
       </c>
@@ -47955,7 +47912,7 @@
         <v>0.32801635561899972</v>
       </c>
     </row>
-    <row r="269" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C269">
         <v>95</v>
       </c>
@@ -47992,7 +47949,7 @@
         <v>0.32912659654564896</v>
       </c>
     </row>
-    <row r="270" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C270">
         <v>100</v>
       </c>
@@ -48029,7 +47986,7 @@
         <v>0.33024723582407417</v>
       </c>
     </row>
-    <row r="271" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C271">
         <v>105</v>
       </c>
@@ -48066,8 +48023,8 @@
         <v>0.33137827345427529</v>
       </c>
     </row>
-    <row r="272" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="5"/>
+    <row r="272" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B272"/>
       <c r="C272">
         <v>110</v>
       </c>
@@ -48104,7 +48061,7 @@
         <v>0.33251970943625236</v>
       </c>
     </row>
-    <row r="273" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C273">
         <v>115</v>
       </c>
@@ -48141,7 +48098,7 @@
         <v>0.33367154377000541</v>
       </c>
     </row>
-    <row r="274" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C274">
         <v>120</v>
       </c>
@@ -48178,7 +48135,7 @@
         <v>0.33483377645553436</v>
       </c>
     </row>
-    <row r="275" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C275">
         <v>125</v>
       </c>
@@ -48215,8 +48172,8 @@
         <v>0.33600640749283928</v>
       </c>
     </row>
-    <row r="276" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="5"/>
+    <row r="276" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B276"/>
       <c r="C276">
         <v>130</v>
       </c>
@@ -48253,7 +48210,7 @@
         <v>0.33718943688192016</v>
       </c>
     </row>
-    <row r="277" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C277">
         <v>135</v>
       </c>
@@ -48290,7 +48247,7 @@
         <v>0.338382864622777</v>
       </c>
     </row>
-    <row r="278" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C278">
         <v>140</v>
       </c>
@@ -48327,7 +48284,7 @@
         <v>0.33958669071540976</v>
       </c>
     </row>
-    <row r="279" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C279">
         <v>145</v>
       </c>
@@ -48364,7 +48321,7 @@
         <v>0.34080091515981842</v>
       </c>
     </row>
-    <row r="280" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C280">
         <v>150</v>
       </c>
@@ -48401,12 +48358,12 @@
         <v>0.3420255379560031</v>
       </c>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B282" s="5" t="s">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B282" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="283" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D283" t="str">
         <f>"T = "&amp;D284&amp; " C"</f>
         <v>T = 20 C</v>
@@ -48440,7 +48397,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="284" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D284">
         <v>20</v>
       </c>
@@ -48454,7 +48411,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C285" t="s">
         <v>53</v>
       </c>
@@ -48491,7 +48448,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="286" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C286">
         <v>1</v>
       </c>
@@ -48528,7 +48485,7 @@
         <v>802.62063656360863</v>
       </c>
     </row>
-    <row r="287" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C287">
         <v>5</v>
       </c>
@@ -48565,7 +48522,7 @@
         <v>802.12888286376733</v>
       </c>
     </row>
-    <row r="288" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C288">
         <v>10</v>
       </c>
@@ -48602,7 +48559,7 @@
         <v>801.36661768970237</v>
       </c>
     </row>
-    <row r="289" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C289">
         <v>20</v>
       </c>
@@ -48639,7 +48596,7 @@
         <v>799.55426176726269</v>
       </c>
     </row>
-    <row r="290" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C290">
         <v>30</v>
       </c>
@@ -48676,7 +48633,7 @@
         <v>797.45673624519452</v>
       </c>
     </row>
-    <row r="291" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C291">
         <v>40</v>
       </c>
@@ -48713,7 +48670,7 @@
         <v>795.12641921903639</v>
       </c>
     </row>
-    <row r="292" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C292">
         <v>50</v>
       </c>
@@ -48750,7 +48707,7 @@
         <v>792.59451587530577</v>
       </c>
     </row>
-    <row r="293" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C293">
         <v>60</v>
       </c>
@@ -48787,7 +48744,7 @@
         <v>789.8845587156452</v>
       </c>
     </row>
-    <row r="294" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C294">
         <v>70</v>
       </c>
@@ -48824,7 +48781,7 @@
         <v>787.01628906227722</v>
       </c>
     </row>
-    <row r="295" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C295">
         <v>80</v>
       </c>
@@ -48861,8 +48818,8 @@
         <v>784.00712477775232</v>
       </c>
     </row>
-    <row r="296" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="5"/>
+    <row r="296" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B296"/>
       <c r="C296">
         <v>90</v>
       </c>
@@ -48899,7 +48856,7 @@
         <v>780.87281433005978</v>
       </c>
     </row>
-    <row r="297" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C297">
         <v>100</v>
       </c>
@@ -48936,7 +48893,7 @@
         <v>777.62776826092261</v>
       </c>
     </row>
-    <row r="298" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C298">
         <v>110</v>
       </c>
@@ -48973,7 +48930,7 @@
         <v>774.28524863990162</v>
       </c>
     </row>
-    <row r="299" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C299">
         <v>120</v>
       </c>
@@ -49010,8 +48967,8 @@
         <v>770.8574911290732</v>
       </c>
     </row>
-    <row r="300" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="5"/>
+    <row r="300" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B300"/>
       <c r="C300">
         <v>130</v>
       </c>
@@ -49048,7 +49005,7 @@
         <v>770.18625664651051</v>
       </c>
     </row>
-    <row r="301" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C301">
         <v>140</v>
       </c>
@@ -49085,7 +49042,7 @@
         <v>773.20412606234561</v>
       </c>
     </row>
-    <row r="302" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C302">
         <v>150</v>
       </c>
@@ -49122,7 +49079,7 @@
         <v>775.82917642409927</v>
       </c>
     </row>
-    <row r="303" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C303">
         <v>160</v>
       </c>
@@ -49159,8 +49116,8 @@
         <v>778.13340518241932</v>
       </c>
     </row>
-    <row r="304" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="5"/>
+    <row r="304" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B304"/>
       <c r="C304">
         <v>170</v>
       </c>
@@ -49197,7 +49154,7 @@
         <v>780.17223081552686</v>
       </c>
     </row>
-    <row r="305" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C305">
         <v>180</v>
       </c>
@@ -49234,7 +49191,7 @@
         <v>781.98900449725886</v>
       </c>
     </row>
-    <row r="306" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C306">
         <v>190</v>
       </c>
@@ -49271,7 +49228,7 @@
         <v>783.61812467602022</v>
       </c>
     </row>
-    <row r="307" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C307">
         <v>200</v>
       </c>
@@ -49308,8 +49265,8 @@
         <v>785.08723446382396</v>
       </c>
     </row>
-    <row r="308" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="5"/>
+    <row r="308" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B308"/>
       <c r="C308">
         <v>210</v>
       </c>
@@ -49346,7 +49303,7 @@
         <v>786.41880217289054</v>
       </c>
     </row>
-    <row r="309" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C309">
         <v>220</v>
       </c>
@@ -49383,7 +49340,7 @@
         <v>787.63127797483344</v>
       </c>
     </row>
-    <row r="310" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C310">
         <v>230</v>
       </c>
@@ -49420,7 +49377,7 @@
         <v>788.7399536208427</v>
       </c>
     </row>
-    <row r="311" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C311">
         <v>240</v>
       </c>
@@ -49457,8 +49414,8 @@
         <v>789.75761050235815</v>
       </c>
     </row>
-    <row r="312" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="5"/>
+    <row r="312" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B312"/>
       <c r="C312">
         <v>250</v>
       </c>
@@ -49495,7 +49452,7 @@
         <v>790.69501444623029</v>
       </c>
     </row>
-    <row r="313" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C313">
         <v>260</v>
       </c>
@@ -49532,7 +49489,7 @@
         <v>791.56129792618458</v>
       </c>
     </row>
-    <row r="314" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C314">
         <v>270</v>
       </c>
@@ -49569,7 +49526,7 @@
         <v>792.36425848310421</v>
       </c>
     </row>
-    <row r="315" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C315">
         <v>280</v>
       </c>
@@ -49606,7 +49563,7 @@
         <v>793.11059402833689</v>
       </c>
     </row>
-    <row r="316" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C316">
         <v>290</v>
       </c>
@@ -49643,12 +49600,12 @@
         <v>793.8060900732695</v>
       </c>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B319" s="5" t="s">
+    <row r="319" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B319" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D320" t="str">
         <f>"T = "&amp;D321&amp; " C"</f>
         <v>T = 20 C</v>
@@ -49682,7 +49639,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="321" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D321">
         <v>20</v>
       </c>
@@ -49696,7 +49653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="322" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C322" t="s">
         <v>53</v>
       </c>
@@ -49733,7 +49690,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="323" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C323">
         <v>1</v>
       </c>
@@ -49770,7 +49727,7 @@
         <v>0.6913480797080972</v>
       </c>
     </row>
-    <row r="324" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C324">
         <v>5</v>
       </c>
@@ -49807,7 +49764,7 @@
         <v>3.4701931998678153</v>
       </c>
     </row>
-    <row r="325" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C325">
         <v>10</v>
       </c>
@@ -49844,7 +49801,7 @@
         <v>6.9693456292622482</v>
       </c>
     </row>
-    <row r="326" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C326">
         <v>20</v>
       </c>
@@ -49881,7 +49838,7 @@
         <v>14.029393874974543</v>
       </c>
     </row>
-    <row r="327" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C327">
         <v>30</v>
       </c>
@@ -49918,7 +49875,7 @@
         <v>21.135339646630847</v>
       </c>
     </row>
-    <row r="328" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C328">
         <v>40</v>
       </c>
@@ -49955,7 +49912,7 @@
         <v>28.247916783221125</v>
       </c>
     </row>
-    <row r="329" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C329">
         <v>50</v>
       </c>
@@ -49992,7 +49949,7 @@
         <v>35.3321304408651</v>
       </c>
     </row>
-    <row r="330" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C330">
         <v>60</v>
       </c>
@@ -50029,7 +49986,7 @@
         <v>42.356887076225263</v>
       </c>
     </row>
-    <row r="331" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C331">
         <v>70</v>
       </c>
@@ -50066,7 +50023,7 @@
         <v>49.294723360131236</v>
       </c>
     </row>
-    <row r="332" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C332">
         <v>80</v>
       </c>
@@ -50103,8 +50060,8 @@
         <v>56.121535428080357</v>
       </c>
     </row>
-    <row r="333" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B333" s="5"/>
+    <row r="333" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B333"/>
       <c r="C333">
         <v>90</v>
       </c>
@@ -50141,7 +50098,7 @@
         <v>62.816293073634291</v>
       </c>
     </row>
-    <row r="334" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C334">
         <v>100</v>
       </c>
@@ -50178,7 +50135,7 @@
         <v>69.360742125668878</v>
       </c>
     </row>
-    <row r="335" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C335">
         <v>110</v>
       </c>
@@ -50215,7 +50172,7 @@
         <v>75.739102428812245</v>
       </c>
     </row>
-    <row r="336" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C336">
         <v>120</v>
       </c>
@@ -50252,8 +50209,8 @@
         <v>81.937768837041219</v>
       </c>
     </row>
-    <row r="337" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="5"/>
+    <row r="337" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B337"/>
       <c r="C337">
         <v>130</v>
       </c>
@@ -50290,7 +50247,7 @@
         <v>87.945021348342308</v>
       </c>
     </row>
-    <row r="338" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C338">
         <v>140</v>
       </c>
@@ -50327,7 +50284,7 @@
         <v>93.750748950747308</v>
       </c>
     </row>
-    <row r="339" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C339">
         <v>150</v>
       </c>
@@ -50364,7 +50321,7 @@
         <v>99.34619028922765</v>
       </c>
     </row>
-    <row r="340" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C340">
         <v>160</v>
       </c>
@@ -50401,8 +50358,8 @@
         <v>104.72369303316422</v>
       </c>
     </row>
-    <row r="341" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="5"/>
+    <row r="341" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B341"/>
       <c r="C341">
         <v>170</v>
       </c>
@@ -50439,7 +50396,7 @@
         <v>109.87649285947232</v>
       </c>
     </row>
-    <row r="342" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C342">
         <v>180</v>
       </c>
@@ -50476,7 +50433,7 @@
         <v>114.79851225721981</v>
       </c>
     </row>
-    <row r="343" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C343">
         <v>190</v>
       </c>
@@ -50513,7 +50470,7 @@
         <v>119.48417887787677</v>
       </c>
     </row>
-    <row r="344" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C344">
         <v>200</v>
       </c>
@@ -50550,8 +50507,8 @@
         <v>123.92826286763005</v>
       </c>
     </row>
-    <row r="345" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="5"/>
+    <row r="345" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B345"/>
       <c r="C345">
         <v>210</v>
       </c>
@@ -50588,7 +50545,7 @@
         <v>128.12573249139112</v>
       </c>
     </row>
-    <row r="346" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C346">
         <v>220</v>
       </c>
@@ -50625,7 +50582,7 @@
         <v>132.07162736237908</v>
       </c>
     </row>
-    <row r="347" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C347">
         <v>230</v>
       </c>
@@ -50662,7 +50619,7 @@
         <v>135.76094870090878</v>
       </c>
     </row>
-    <row r="348" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C348">
         <v>240</v>
       </c>
@@ -50699,8 +50656,8 @@
         <v>139.18856623993409</v>
       </c>
     </row>
-    <row r="349" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="5"/>
+    <row r="349" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B349"/>
       <c r="C349">
         <v>250</v>
       </c>
@@ -50737,7 +50694,7 @@
         <v>142.34914165528212</v>
       </c>
     </row>
-    <row r="350" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C350">
         <v>260</v>
       </c>
@@ -50774,7 +50731,7 @@
         <v>145.23706871030427</v>
       </c>
     </row>
-    <row r="351" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C351">
         <v>270</v>
       </c>
@@ -50811,7 +50768,7 @@
         <v>147.84643065422352</v>
       </c>
     </row>
-    <row r="352" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C352">
         <v>280</v>
       </c>
@@ -50848,7 +50805,7 @@
         <v>150.17097578723835</v>
       </c>
     </row>
-    <row r="353" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C353">
         <v>290</v>
       </c>
@@ -50885,12 +50842,12 @@
         <v>152.2041124885148</v>
       </c>
     </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B357" s="5" t="s">
+    <row r="357" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B357" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D358" t="str">
         <f>"T = "&amp;D359&amp; " C"</f>
         <v>T = 20 C</v>
@@ -50924,7 +50881,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="359" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D359">
         <v>20</v>
       </c>
@@ -50938,7 +50895,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="360" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C360" t="s">
         <v>53</v>
       </c>
@@ -50975,7 +50932,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="361" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C361">
         <v>1</v>
       </c>
@@ -51012,7 +50969,7 @@
         <v>1026.1063320181975</v>
       </c>
     </row>
-    <row r="362" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C362">
         <v>5</v>
       </c>
@@ -51049,7 +51006,7 @@
         <v>1026.1628306427622</v>
       </c>
     </row>
-    <row r="363" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C363">
         <v>10</v>
       </c>
@@ -51086,7 +51043,7 @@
         <v>1026.236199133954</v>
       </c>
     </row>
-    <row r="364" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C364">
         <v>20</v>
       </c>
@@ -51123,7 +51080,7 @@
         <v>1026.3920918447859</v>
       </c>
     </row>
-    <row r="365" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C365">
         <v>30</v>
       </c>
@@ -51160,7 +51117,7 @@
         <v>1026.5602015410582</v>
       </c>
     </row>
-    <row r="366" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C366">
         <v>40</v>
       </c>
@@ -51197,7 +51154,7 @@
         <v>1026.7405402065926</v>
       </c>
     </row>
-    <row r="367" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C367">
         <v>50</v>
       </c>
@@ -51234,7 +51191,7 @@
         <v>1026.933120703505</v>
       </c>
     </row>
-    <row r="368" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C368">
         <v>60</v>
       </c>
@@ -51271,7 +51228,7 @@
         <v>1027.1379567745005</v>
       </c>
     </row>
-    <row r="369" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C369">
         <v>70</v>
       </c>
@@ -51308,7 +51265,7 @@
         <v>1027.3550630453312</v>
       </c>
     </row>
-    <row r="370" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C370">
         <v>80</v>
       </c>
@@ -51345,8 +51302,8 @@
         <v>1027.5844550274139</v>
       </c>
     </row>
-    <row r="371" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B371" s="5"/>
+    <row r="371" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B371"/>
       <c r="C371">
         <v>90</v>
       </c>
@@ -51383,7 +51340,7 @@
         <v>1027.8261491206051</v>
       </c>
     </row>
-    <row r="372" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C372">
         <v>100</v>
       </c>
@@ -51420,7 +51377,7 @@
         <v>1028.0801626161428</v>
       </c>
     </row>
-    <row r="373" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C373">
         <v>110</v>
       </c>
@@ -51457,7 +51414,7 @@
         <v>1028.3465136997479</v>
       </c>
     </row>
-    <row r="374" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C374">
         <v>120</v>
       </c>
@@ -51494,8 +51451,8 @@
         <v>1028.6252214548895</v>
       </c>
     </row>
-    <row r="375" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B375" s="5"/>
+    <row r="375" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B375"/>
       <c r="C375">
         <v>130</v>
       </c>
@@ -51532,7 +51489,7 @@
         <v>1028.9163058662173</v>
       </c>
     </row>
-    <row r="376" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C376">
         <v>140</v>
       </c>
@@ -51569,7 +51526,7 @@
         <v>1029.2197878231577</v>
       </c>
     </row>
-    <row r="377" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C377">
         <v>150</v>
       </c>
@@ -51606,7 +51563,7 @@
         <v>1029.5356891236797</v>
       </c>
     </row>
-    <row r="378" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C378">
         <v>160</v>
       </c>
@@ -51643,8 +51600,8 @@
         <v>1029.8640324782266</v>
       </c>
     </row>
-    <row r="379" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B379" s="5"/>
+    <row r="379" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B379"/>
       <c r="C379">
         <v>170</v>
       </c>
@@ -51681,7 +51638,7 @@
         <v>1030.2048415138202</v>
       </c>
     </row>
-    <row r="380" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C380">
         <v>180</v>
       </c>
@@ -51718,7 +51675,7 @@
         <v>1030.5581407783343</v>
       </c>
     </row>
-    <row r="381" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C381">
         <v>190</v>
       </c>
@@ -51755,7 +51712,7 @@
         <v>1030.923955744943</v>
       </c>
     </row>
-    <row r="382" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C382">
         <v>200</v>
       </c>
@@ -51792,8 +51749,8 @@
         <v>1031.3023128167413</v>
       </c>
     </row>
-    <row r="383" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="5"/>
+    <row r="383" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B383"/>
       <c r="C383">
         <v>210</v>
       </c>
@@ -51830,7 +51787,7 @@
         <v>1031.6932393315428</v>
       </c>
     </row>
-    <row r="384" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C384">
         <v>220</v>
       </c>
@@ -51867,7 +51824,7 @@
         <v>1032.0967635668551</v>
       </c>
     </row>
-    <row r="385" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C385">
         <v>230</v>
       </c>
@@ -51904,7 +51861,7 @@
         <v>1032.5129147450334</v>
       </c>
     </row>
-    <row r="386" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C386">
         <v>240</v>
       </c>
@@ -51941,8 +51898,8 @@
         <v>1032.9417230386155</v>
       </c>
     </row>
-    <row r="387" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="5"/>
+    <row r="387" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B387"/>
       <c r="C387">
         <v>250</v>
       </c>
@@ -51979,7 +51936,7 @@
         <v>1033.3832195758398</v>
       </c>
     </row>
-    <row r="388" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C388">
         <v>260</v>
       </c>
@@ -52016,7 +51973,7 @@
         <v>1033.8374364463486</v>
       </c>
     </row>
-    <row r="389" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C389">
         <v>270</v>
       </c>
@@ -52053,7 +52010,7 @@
         <v>1034.3044067070766</v>
       </c>
     </row>
-    <row r="390" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C390">
         <v>280</v>
       </c>
@@ -52090,7 +52047,7 @@
         <v>1034.7841643883291</v>
       </c>
     </row>
-    <row r="391" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C391">
         <v>290</v>
       </c>
@@ -52127,12 +52084,12 @@
         <v>1035.2767445000518</v>
       </c>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B394" s="5" t="s">
+    <row r="394" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B394" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="395" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D395" t="str">
         <f>"T = "&amp;D396&amp; " C"</f>
         <v>T = 20 C</v>
@@ -52166,7 +52123,7 @@
         <v>T = 140 C</v>
       </c>
     </row>
-    <row r="396" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="D396">
         <v>20</v>
       </c>
@@ -52180,7 +52137,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="397" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C397" t="s">
         <v>53</v>
       </c>
@@ -52217,7 +52174,7 @@
         <v>T_0_140</v>
       </c>
     </row>
-    <row r="398" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C398">
         <v>1</v>
       </c>
@@ -52254,7 +52211,7 @@
         <v>0.9988945140842892</v>
       </c>
     </row>
-    <row r="399" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C399">
         <v>5</v>
       </c>
@@ -52291,7 +52248,7 @@
         <v>0.99502212754239661</v>
       </c>
     </row>
-    <row r="400" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C400">
         <v>10</v>
       </c>
@@ -52328,7 +52285,7 @@
         <v>0.99088758239161834</v>
       </c>
     </row>
-    <row r="401" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C401">
         <v>20</v>
       </c>
@@ -52365,7 +52322,7 @@
         <v>0.98448131159106012</v>
       </c>
     </row>
-    <row r="402" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C402">
         <v>30</v>
       </c>
@@ -52402,7 +52359,7 @@
         <v>0.98023095302356922</v>
       </c>
     </row>
-    <row r="403" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C403">
         <v>40</v>
       </c>
@@ -52439,7 +52396,7 @@
         <v>0.97788988751669437</v>
       </c>
     </row>
-    <row r="404" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C404">
         <v>50</v>
       </c>
@@ -52476,7 +52433,7 @@
         <v>0.97727450273476535</v>
       </c>
     </row>
-    <row r="405" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C405">
         <v>60</v>
       </c>
@@ -52513,7 +52470,7 @@
         <v>0.97823591648794384</v>
       </c>
     </row>
-    <row r="406" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C406">
         <v>70</v>
       </c>
@@ -52550,7 +52507,7 @@
         <v>0.98064991534400481</v>
       </c>
     </row>
-    <row r="407" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C407">
         <v>80</v>
       </c>
@@ -52587,8 +52544,8 @@
         <v>0.98441184671878124</v>
       </c>
     </row>
-    <row r="408" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="5"/>
+    <row r="408" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B408"/>
       <c r="C408">
         <v>90</v>
       </c>
@@ -52625,7 +52582,7 @@
         <v>0.98943346274867128</v>
       </c>
     </row>
-    <row r="409" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C409">
         <v>100</v>
       </c>
@@ -52662,7 +52619,7 @@
         <v>0.99564073707849843</v>
       </c>
     </row>
-    <row r="410" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C410">
         <v>110</v>
       </c>
@@ -52699,7 +52656,7 @@
         <v>1.0029722563340808</v>
       </c>
     </row>
-    <row r="411" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C411">
         <v>120</v>
       </c>
@@ -52736,8 +52693,8 @@
         <v>1.011377996659734</v>
       </c>
     </row>
-    <row r="412" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="5"/>
+    <row r="412" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B412"/>
       <c r="C412">
         <v>130</v>
       </c>
@@ -52774,7 +52731,7 @@
         <v>1.0208183836014113</v>
       </c>
     </row>
-    <row r="413" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C413">
         <v>140</v>
       </c>
@@ -52811,7 +52768,7 @@
         <v>1.0312635756203949</v>
       </c>
     </row>
-    <row r="414" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C414">
         <v>150</v>
       </c>
@@ -52848,7 +52805,7 @@
         <v>1.0426929338698676</v>
       </c>
     </row>
-    <row r="415" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C415">
         <v>160</v>
       </c>
@@ -52885,8 +52842,8 @@
         <v>1.0550946539663073</v>
       </c>
     </row>
-    <row r="416" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="5"/>
+    <row r="416" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B416"/>
       <c r="C416">
         <v>170</v>
       </c>
@@ -52923,7 +52880,7 @@
         <v>1.0684655438946384</v>
       </c>
     </row>
-    <row r="417" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C417">
         <v>180</v>
       </c>
@@ -52960,7 +52917,7 @@
         <v>1.0828109380654887</v>
       </c>
     </row>
-    <row r="418" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C418">
         <v>190</v>
       </c>
@@ -52997,7 +52954,7 @@
         <v>1.0981447420022274</v>
       </c>
     </row>
-    <row r="419" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C419">
         <v>200</v>
       </c>
@@ -53034,8 +52991,8 @@
         <v>1.1144896057822595</v>
       </c>
     </row>
-    <row r="420" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B420" s="5"/>
+    <row r="420" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B420"/>
       <c r="C420">
         <v>210</v>
       </c>
@@ -53072,7 +53029,7 @@
         <v>1.131877227549124</v>
       </c>
     </row>
-    <row r="421" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C421">
         <v>220</v>
       </c>
@@ -53109,7 +53066,7 @@
         <v>1.1503487913768597</v>
       </c>
     </row>
-    <row r="422" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C422">
         <v>230</v>
       </c>
@@ -53146,7 +53103,7 @@
         <v>1.1699555466634401</v>
       </c>
     </row>
-    <row r="423" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C423">
         <v>240</v>
       </c>
@@ -53183,8 +53140,8 @@
         <v>1.1907595391754124</v>
       </c>
     </row>
-    <row r="424" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="5"/>
+    <row r="424" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B424"/>
       <c r="C424">
         <v>250</v>
       </c>
@@ -53221,7 +53178,7 @@
         <v>1.2128345069608306</v>
       </c>
     </row>
-    <row r="425" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C425">
         <v>260</v>
       </c>
@@ -53258,7 +53215,7 @@
         <v>1.2362669576825052</v>
       </c>
     </row>
-    <row r="426" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C426">
         <v>270</v>
       </c>
@@ -53295,7 +53252,7 @@
         <v>1.261157447586426</v>
       </c>
     </row>
-    <row r="427" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C427">
         <v>280</v>
       </c>
@@ -53332,7 +53289,7 @@
         <v>1.2876220864012493</v>
       </c>
     </row>
-    <row r="428" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="C428">
         <v>290</v>
       </c>
